--- a/Day2_Coding_Assignment/Complexity_chart-Bubble Sort.xlsx
+++ b/Day2_Coding_Assignment/Complexity_chart-Bubble Sort.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rghvm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E3C881-C846-4629-958B-1AC7585357B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B75B4C8-5DE0-4A2F-B793-A50DB3F891AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,28 +395,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>314</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>579</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>940</c:v>
+                  <c:v>1003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1350</c:v>
+                  <c:v>1397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1870</c:v>
+                  <c:v>1903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2474</c:v>
+                  <c:v>2533</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3186</c:v>
+                  <c:v>3217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,28 +512,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>211</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>329</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>474</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>645</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>871</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1052</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,28 +629,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>305</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>545</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>858</c:v>
+                  <c:v>866</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1245</c:v>
+                  <c:v>1248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1681</c:v>
+                  <c:v>1689</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2216</c:v>
+                  <c:v>2235</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2784</c:v>
+                  <c:v>2805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1798,7 +1798,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1841,13 +1841,13 @@
         <v>8000</v>
       </c>
       <c r="B3" s="4">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C3" s="5">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1855,13 +1855,13 @@
         <v>12000</v>
       </c>
       <c r="B4" s="7">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="C4" s="8">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,13 +1869,13 @@
         <v>16000</v>
       </c>
       <c r="B5" s="7">
-        <v>579</v>
+        <v>630</v>
       </c>
       <c r="C5" s="8">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,13 +1883,13 @@
         <v>20000</v>
       </c>
       <c r="B6" s="7">
-        <v>940</v>
+        <v>1003</v>
       </c>
       <c r="C6" s="8">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1897,13 +1897,13 @@
         <v>24000</v>
       </c>
       <c r="B7" s="7">
-        <v>1350</v>
+        <v>1397</v>
       </c>
       <c r="C7" s="8">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8">
-        <v>1245</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1911,13 +1911,13 @@
         <v>28000</v>
       </c>
       <c r="B8" s="7">
-        <v>1870</v>
+        <v>1903</v>
       </c>
       <c r="C8" s="8">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8">
-        <v>1681</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1925,13 +1925,13 @@
         <v>32000</v>
       </c>
       <c r="B9" s="7">
-        <v>2474</v>
+        <v>2533</v>
       </c>
       <c r="C9" s="8">
-        <v>871</v>
+        <v>0</v>
       </c>
       <c r="D9" s="8">
-        <v>2216</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1939,13 +1939,13 @@
         <v>36000</v>
       </c>
       <c r="B10" s="7">
-        <v>3186</v>
+        <v>3217</v>
       </c>
       <c r="C10" s="8">
-        <v>1052</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8">
-        <v>2784</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
